--- a/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-06.xlsx
+++ b/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21706D7-58B5-EF4E-AF5B-61B87A28AAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954057D5-E438-0E47-98D5-1A033395A51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20020" yWindow="1000" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -196,12 +196,6 @@
     <t>2 Arginine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
@@ -215,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,109 +555,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>-24</v>
       </c>
       <c r="C2">
-        <v>-24</v>
-      </c>
-      <c r="D2">
         <v>39.260100000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>50.829099999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
         <v>50.351500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5">
         <v>49.954300000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>72</v>
-      </c>
-      <c r="D6">
         <v>49.554099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
       </c>
       <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
         <v>49.178899999999999</v>
       </c>
     </row>
@@ -680,11 +653,11 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -702,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -713,7 +686,7 @@
         <v>39201180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -725,7 +698,7 @@
         <v>19955006</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -737,7 +710,7 @@
         <v>10252788</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -749,7 +722,7 @@
         <v>5034077</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -761,7 +734,7 @@
         <v>2933195</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +745,7 @@
         <v>126869</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -789,7 +762,7 @@
         <v>2921762</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -807,7 +780,7 @@
         <v>1514690</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -825,7 +798,7 @@
         <v>1768652</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -843,7 +816,7 @@
         <v>3645381</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -861,7 +834,7 @@
         <v>4510811</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -879,7 +852,7 @@
         <v>3461549</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -897,7 +870,7 @@
         <v>6446499</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -915,7 +888,7 @@
         <v>8563795</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -933,7 +906,7 @@
         <v>6624606</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -951,7 +924,7 @@
         <v>10226840</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -969,7 +942,7 @@
         <v>8941614</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -987,7 +960,7 @@
         <v>9604246</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +978,7 @@
         <v>12652562</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +996,7 @@
         <v>11552869</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1014,7 @@
         <v>14017173</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1032,7 @@
         <v>1578186</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1050,7 @@
         <v>2529166</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1068,7 @@
         <v>1834483</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1086,7 @@
         <v>1984825</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1104,7 @@
         <v>3923361</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1122,7 @@
         <v>2781002</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1140,7 @@
         <v>2556968</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1185,7 +1158,7 @@
         <v>3253114</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1176,7 @@
         <v>2852350</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1194,7 @@
         <v>2616421</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1212,7 @@
         <v>3277003</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1230,7 @@
         <v>4084818</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1248,7 @@
         <v>2094508</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1266,7 @@
         <v>2132700</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1324,11 +1297,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1346,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1330,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1341,7 @@
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1352,7 @@
         <v>0.28189999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1363,7 @@
         <v>0.41930000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1374,7 @@
         <v>0.57130000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1385,7 @@
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1396,7 @@
         <v>1.0656000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1407,7 @@
         <v>1.3551</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1418,7 @@
         <v>0.76529999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1430,7 @@
         <v>0.76229999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1442,7 @@
         <v>0.76649999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1454,7 @@
         <v>0.76980000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1466,7 @@
         <v>0.76939999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1478,7 @@
         <v>0.75219999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1490,7 @@
         <v>0.76859999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1502,7 @@
         <v>0.74219999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1514,7 @@
         <v>0.77639999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1526,7 @@
         <v>0.69230000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1538,7 @@
         <v>0.70750000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1550,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1562,7 @@
         <v>0.69310000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1574,7 @@
         <v>0.66910000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1586,7 @@
         <v>0.67290000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1598,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1610,7 @@
         <v>0.78739999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1622,7 @@
         <v>0.80520000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1634,7 @@
         <v>0.78649999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1646,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1658,7 @@
         <v>0.79120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1670,7 @@
         <v>0.76290000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1682,7 @@
         <v>0.76049999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1694,7 @@
         <v>0.77669999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1706,7 @@
         <v>0.78639999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1718,7 @@
         <v>0.75470000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1730,7 @@
         <v>0.76749999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1742,7 @@
         <v>0.77780000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1754,7 @@
         <v>0.71550000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +1766,7 @@
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1805,7 +1778,7 @@
         <v>0.79269999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1790,7 @@
         <v>0.77880000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1802,7 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1814,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1826,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1838,7 @@
         <v>0.82179999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1850,7 @@
         <v>0.81379999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1889,7 +1862,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1874,7 @@
         <v>0.81689999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +1886,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1898,7 @@
         <v>0.8236</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1910,7 @@
         <v>0.83130000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +1922,7 @@
         <v>0.86629999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1934,7 @@
         <v>0.83660000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1986,11 +1959,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2008,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +1992,7 @@
         <v>116015488</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2003,7 @@
         <v>151291856</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2014,7 @@
         <v>201108640</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2025,7 @@
         <v>309172480</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2036,7 @@
         <v>536131136</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2047,7 @@
         <v>1060276608</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2058,7 @@
         <v>1558072704</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2096,7 +2069,7 @@
         <v>2394145024</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2080,7 @@
         <v>122978456</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2092,7 @@
         <v>119792688</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2104,7 @@
         <v>120173488</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2143,7 +2116,7 @@
         <v>191369264</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2128,7 @@
         <v>191059264</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2140,7 @@
         <v>185079632</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2152,7 @@
         <v>314340384</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +2164,7 @@
         <v>316840704</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2203,7 +2176,7 @@
         <v>331741856</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +2188,7 @@
         <v>659933184</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2200,7 @@
         <v>610136192</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2212,7 @@
         <v>587964096</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2224,7 @@
         <v>1017650368</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2236,7 @@
         <v>867658048</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2248,7 @@
         <v>910678016</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2260,7 @@
         <v>116396488</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2299,7 +2272,7 @@
         <v>122984360</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2284,7 @@
         <v>121614672</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2296,7 @@
         <v>187242576</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2308,7 @@
         <v>195444160</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2320,7 @@
         <v>177139360</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2359,7 +2332,7 @@
         <v>300570080</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2344,7 @@
         <v>265873040</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2356,7 @@
         <v>293466976</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2368,7 @@
         <v>420720544</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2380,7 @@
         <v>432496416</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2392,7 @@
         <v>391913024</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2404,7 @@
         <v>546242688</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2443,7 +2416,7 @@
         <v>539150144</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2455,7 +2428,7 @@
         <v>566955904</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2440,7 @@
         <v>115885168</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2452,7 @@
         <v>111346800</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2491,7 +2464,7 @@
         <v>120593352</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2476,7 @@
         <v>122197120</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2488,7 @@
         <v>120051800</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2500,7 @@
         <v>119247384</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2512,7 @@
         <v>118327488</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2524,7 @@
         <v>115628088</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2536,7 @@
         <v>113999560</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2548,7 @@
         <v>110816440</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2560,7 @@
         <v>121095944</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2572,7 @@
         <v>122029808</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2584,7 @@
         <v>119237296</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +2596,7 @@
         <v>120715608</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2648,11 +2621,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2670,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2654,7 @@
         <v>25821108</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2665,7 @@
         <v>37221488</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2676,7 @@
         <v>49070628</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2687,7 @@
         <v>88618336</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2698,7 @@
         <v>172870080</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2736,7 +2709,7 @@
         <v>259652592</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2720,7 @@
         <v>354779040</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2758,7 +2731,7 @@
         <v>441989088</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +2742,7 @@
         <v>252745920</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +2753,7 @@
         <v>255136768</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2764,7 @@
         <v>267453392</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2775,7 @@
         <v>255955392</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2786,7 @@
         <v>251828144</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2797,7 @@
         <v>256858336</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2808,7 @@
         <v>234640576</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2819,7 @@
         <v>228451232</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2857,7 +2830,7 @@
         <v>234818064</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2841,7 @@
         <v>204449600</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2852,7 @@
         <v>200469120</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2890,7 +2863,7 @@
         <v>213894176</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2901,7 +2874,7 @@
         <v>172684768</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2885,7 @@
         <v>170410720</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2896,7 @@
         <v>173126688</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2907,7 @@
         <v>261365936</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2945,7 +2918,7 @@
         <v>238501952</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +2929,7 @@
         <v>252294336</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2940,7 @@
         <v>251540608</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2978,7 +2951,7 @@
         <v>259561024</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +2962,7 @@
         <v>262927536</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +2973,7 @@
         <v>247677136</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +2984,7 @@
         <v>243219776</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +2995,7 @@
         <v>247629312</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3033,7 +3006,7 @@
         <v>262207920</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3044,7 +3017,7 @@
         <v>245374912</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3028,7 @@
         <v>269699904</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3066,7 +3039,7 @@
         <v>259126784</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3050,7 @@
         <v>235075104</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3061,7 @@
         <v>238097776</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3072,7 @@
         <v>252441680</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3083,7 @@
         <v>251848976</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3094,7 @@
         <v>256373504</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3105,7 @@
         <v>259498608</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3116,7 @@
         <v>262320384</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3154,7 +3127,7 @@
         <v>261648096</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3138,7 @@
         <v>263043856</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3149,7 @@
         <v>270630880</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3160,7 @@
         <v>274859616</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3171,7 @@
         <v>283761728</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3182,7 @@
         <v>287656736</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3220,7 +3193,7 @@
         <v>284814048</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3231,7 +3204,7 @@
         <v>319939872</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3242,7 +3215,7 @@
         <v>280450656</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3266,11 +3239,11 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3414,7 +3387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3527,7 @@
         <v>32.423400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3667,7 @@
         <v>82.828800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3837,7 +3810,7 @@
         <v>347.08100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3980,7 +3953,7 @@
         <v>888.03309999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +4096,7 @@
         <v>2412.5185999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4263,7 +4236,7 @@
         <v>2052.5868999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4376,7 @@
         <v>2077.7892999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4519,7 @@
         <v>2152.7622000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +4662,7 @@
         <v>2248.9845999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +4802,7 @@
         <v>1756.4752000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4969,7 +4942,7 @@
         <v>1919.2969000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5082,7 @@
         <v>2149.1880000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5222,7 @@
         <v>1803.4283</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5389,7 +5362,7 @@
         <v>2128.1127999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5532,7 +5505,7 @@
         <v>2161.3044</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5645,7 @@
         <v>1954.6746000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5815,7 +5788,7 @@
         <v>2239.1907000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +5931,7 @@
         <v>2263.0646999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6101,7 +6074,7 @@
         <v>1989.2996000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +6217,7 @@
         <v>2158.364</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6384,7 +6357,7 @@
         <v>2334.4495000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6524,7 +6497,7 @@
         <v>2188.8604</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6664,7 +6637,7 @@
         <v>1658.9628</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6804,7 +6777,7 @@
         <v>2253.1754999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6944,7 +6917,7 @@
         <v>1769.0519999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7087,7 +7060,7 @@
         <v>2244.2348999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7227,7 +7200,7 @@
         <v>1902.1919</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7367,7 +7340,7 @@
         <v>1912.7793999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7507,7 +7480,7 @@
         <v>1919.4713999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7650,7 +7623,7 @@
         <v>2249.8119999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7790,7 +7763,7 @@
         <v>2178.2844</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7933,7 +7906,7 @@
         <v>2161.2224000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8076,7 +8049,7 @@
         <v>2362.6532999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8219,7 +8192,7 @@
         <v>2319.1696999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8359,7 +8332,7 @@
         <v>2022.9354000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8502,7 +8475,7 @@
         <v>2106.9443000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8642,7 +8615,7 @@
         <v>2235.2329</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8782,7 +8755,7 @@
         <v>2208.9081999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +8895,7 @@
         <v>2119.6057000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -9062,7 +9035,7 @@
         <v>2321.6289000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -9202,7 +9175,7 @@
         <v>2193.2292000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -9342,7 +9315,7 @@
         <v>2196.1990000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9482,7 +9455,7 @@
         <v>2000.2049999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9625,7 +9598,7 @@
         <v>2342.9153000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9765,7 +9738,7 @@
         <v>2066.6685000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9905,7 +9878,7 @@
         <v>1998.0450000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -10045,7 +10018,7 @@
         <v>1760.2188000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -10188,7 +10161,7 @@
         <v>2080.3771999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -10328,7 +10301,7 @@
         <v>1762.7249999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
